--- a/medicine/Enfance/Clément_Oubrerie/Clément_Oubrerie.xlsx
+++ b/medicine/Enfance/Clément_Oubrerie/Clément_Oubrerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Oubrerie</t>
+          <t>Clément_Oubrerie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clément Oubrerie, né le 23 décembre 1966 à Paris, est un illustrateur et dessinateur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Oubrerie</t>
+          <t>Clément_Oubrerie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clément Oubrerie suit des études d'arts graphiques à l'ESAG, puis les interrompt pour aller vivre deux ans aux États-Unis où, illustrateur pour la jeunesse, il publie ses premiers albums[1].
-En 2005, il publie Aya de Yopougon chez Gallimard sur un scénario de Marguerite Abouet (Prix Révélation au Festival d'Angoulême 2006[2]). La série de six tomes est traduite en plus d'une quinzaine de langues[3].
-Suivent l'adaptation en BD de Zazie dans le métro de Raymond Queneau, Jeangot, avec Joann Sfar, Mâle Occidental Contemporain avec François Bégaudeau et la série Pablo (Dargaud - 4 tomes), avec Julie Birmant, relatant la jeunesse de Pablo Picasso à Montmartre (Grand prix RTL de la BD 2012[2], Étoile du Parisien 2013[4].
-Il s'essaie au fantastique et adapte en trois tomes Les Royaumes du Nord (Gallimard), le roman de Philip Pullman, avec Stéphane Melchior (Fauve jeunesse d'Angoulême 2015[2]), et retrace, avec Julie Birmant et en deux volumes, la vie d'Isadora Duncan : Il était une fois dans l'Est (2016) et Isadora (2017) (Dargaud).
-Depuis 2016, il travaille sur trois nouvelles séries en parallèle : Voltaire amoureux, aux Arènes BD (Grand prix Quai des Bulles 2017[5]) ; Renée Stone, avec Julie Birmant chez Dargaud ; Cyberfatale, avec un trio de scénaristes, réunis sous le pseudonyme Cépanou, chez Rue de Sèvres[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clément Oubrerie suit des études d'arts graphiques à l'ESAG, puis les interrompt pour aller vivre deux ans aux États-Unis où, illustrateur pour la jeunesse, il publie ses premiers albums.
+En 2005, il publie Aya de Yopougon chez Gallimard sur un scénario de Marguerite Abouet (Prix Révélation au Festival d'Angoulême 2006). La série de six tomes est traduite en plus d'une quinzaine de langues.
+Suivent l'adaptation en BD de Zazie dans le métro de Raymond Queneau, Jeangot, avec Joann Sfar, Mâle Occidental Contemporain avec François Bégaudeau et la série Pablo (Dargaud - 4 tomes), avec Julie Birmant, relatant la jeunesse de Pablo Picasso à Montmartre (Grand prix RTL de la BD 2012, Étoile du Parisien 2013.
+Il s'essaie au fantastique et adapte en trois tomes Les Royaumes du Nord (Gallimard), le roman de Philip Pullman, avec Stéphane Melchior (Fauve jeunesse d'Angoulême 2015), et retrace, avec Julie Birmant et en deux volumes, la vie d'Isadora Duncan : Il était une fois dans l'Est (2016) et Isadora (2017) (Dargaud).
+Depuis 2016, il travaille sur trois nouvelles séries en parallèle : Voltaire amoureux, aux Arènes BD (Grand prix Quai des Bulles 2017) ; Renée Stone, avec Julie Birmant chez Dargaud ; Cyberfatale, avec un trio de scénaristes, réunis sous le pseudonyme Cépanou, chez Rue de Sèvres.
 Dans le registre de l'animation, il est cofondateur, avec Joann Sfar et Antoine Delesvaux, d'Autochenille Production, un studio dont les deux premiers longs métrages sont Le Chat du rabbin (2010, César du meilleur film d'animation) et Aya de Yopougon (2013), qu'il coréalise avec Marguerite Abouet.
-Il a également signé, avec Éric et Ramzy, la série Moot-Moot (Cristal de la série Annecy 2008[7]) pour Canal+.
+Il a également signé, avec Éric et Ramzy, la série Moot-Moot (Cristal de la série Annecy 2008) pour Canal+.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Oubrerie</t>
+          <t>Clément_Oubrerie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums jeunesse
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1992 : The Kooken, avec Richard Ploetz et Julia Leibentritt, Henry Holt.
 1993 : It's hard to read a map with a beagle on your lap, avec Marilyn Singer, Henry Holt.
 1994 :
@@ -604,13 +624,49 @@
 Les fables de la Fontaine, album jeunesse, Lito (collectif).
 Recueil de chansons, album jeunesse, Larousse (collectif).
 2004 :
-Le monde sur un plateau, avec Madeleine Deny, Nathan[8].
+Le monde sur un plateau, avec Madeleine Deny, Nathan.
 Comment dresser votre dragon de Cressida Cowell, J'ai lu.
 Je veux aller sur Mars, Patricia Berreby, Casterman.
 2005 :
 Les dix et une nuits, avec Marianne Boilève, Le Seuil Jeunesse.
 Dis tante Mémène…, réédition, avec Marianne Boilève, Hachette Jeunesse.
-Bande dessinée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clément_Oubrerie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Oubrerie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Akissi, assistant, 2 tomes.
 Aya de Yopougon, avec Marguerite Abouet, Gallimard.
 Zazie dans le métro, d'après le roman de Raymond Queneau, Gallimard, 2008.
@@ -641,36 +697,73 @@
 À mains nues (dessin), scénario de Leïla Slimani, Les Arènes.
 Tome 1 : 1900 - 1921, 2020  (ISBN 979-1037502643).
 Tome 2 : 1922-1954, 2021  (ISBN 9791037504661).
-Roman jeunesse
-Mon chien est raciste, texte de Audren, ill. Clément Oubrerie, Albin Michel Jeunesse, 2016</t>
+</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9ment_Oubrerie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clément_Oubrerie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Oubrerie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Roman jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mon chien est raciste, texte de Audren, ill. Clément Oubrerie, Albin Michel Jeunesse, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clément_Oubrerie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Oubrerie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Domino, TF1.
@@ -683,67 +776,69 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9ment_Oubrerie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clément_Oubrerie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cl%C3%A9ment_Oubrerie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyberfatale :
-Bande dessinée RTL de novembre 2018[9].
+Bande dessinée RTL de novembre 2018.
 Voltaire amoureux :
-Prix Cognito de la BD historique 2018[10].
-Sélection Grand prix de la critique ACBD 2017[11].
-Prix Les petits mots des libraires 2018[12].
-Grand prix de l'affiche[13] au festival Quai des Bulles 2017 de Saint-Malo.
+Prix Cognito de la BD historique 2018.
+Sélection Grand prix de la critique ACBD 2017.
+Prix Les petits mots des libraires 2018.
+Grand prix de l'affiche au festival Quai des Bulles 2017 de Saint-Malo.
 Les Royaumes du Nord, T.1 :
 Fauve d'Angoulême - Prix jeunesse 2015.
 Moot Moot :
-Cristal de la série Annecy 2008[14].
+Cristal de la série Annecy 2008.
 Aya de Yopougon :
-Meilleur premier album Angoulême 2006[15].
-Tour d'Ivoire 2007[16].
+Meilleur premier album Angoulême 2006.
+Tour d'Ivoire 2007.
 Prix de la Guadeloupe 2007.
-2007 : Prix de la BD du Point, avec Marguerite Abouet, pour Aya de Yopougon[17].
+2007 : Prix de la BD du Point, avec Marguerite Abouet, pour Aya de Yopougon.
 Margouillat 2007.
 Prix ADP 2008.
 Sélection officielle Eisner Awards 2008.
 2008 Children's Africana Book Award : Best Book.
 2008 Glyph Comic Awards : Rising star et Best reprint publication.
-Film nommé aux Césars 2014[18].
-Pépite de l'adaptation cinématographique, Montreuil 2013[19].
+Film nommé aux Césars 2014.
+Pépite de l'adaptation cinématographique, Montreuil 2013.
 Pablo :
-Grand prix RTL de la bande dessinée 2012, avec Julie Birmant[20].
+Grand prix RTL de la bande dessinée 2012, avec Julie Birmant.
 Sélection officielle Angoulême 2013.
-Dbd awards 2013 : meilleur dessin[21].
-Étoile du Parisien 2013[4].
+Dbd awards 2013 : meilleur dessin.
+Étoile du Parisien 2013.
 Jeangot :
-Dbd awards 2013 : meilleur dessin[21].
+Dbd awards 2013 : meilleur dessin.
 Les 1000 mots de l'info :
 Prix du livre de presse jeunesse Montreuil 2003.
 Mon chien est raciste, texte de Audren, ill. Clément Oubrerie :
-Prix des libraires du Québec section Jeunesse 2016[22].
+Prix des libraires du Québec section Jeunesse 2016.
 </t>
         </is>
       </c>
